--- a/results/I3_N5_M3_T15_C100_DepCentral_s0_mean_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1839.546596348162</v>
+        <v>145.1550089908196</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4830000400543213</v>
+        <v>0.1800000667572021</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5.192094122040864e-12</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.92399021724839</v>
+        <v>25.15500899081956</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.344651296634344</v>
+        <v>3.258207654224587</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8372574275573793</v>
+        <v>3.258207654224587</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1397.79999999999</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>423.33</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -885,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.43123270582124</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.836925852814986</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.714260469395107</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.57904977333279</v>
+        <v>10.85875413377278</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.655348703365656</v>
+        <v>12.94108823397048</v>
       </c>
     </row>
     <row r="8">
@@ -987,10 +998,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1004,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1068,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>232.6209999999999</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1079,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>103.8960000000008</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="5">
@@ -1090,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>76.33399999999934</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="6">
@@ -1101,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>103.263</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="7">
@@ -1112,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>158.0399999999976</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="8">
@@ -1123,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>103.8960000000008</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1134,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>103.262999999999</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="10">
@@ -1145,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>232.6209999999992</v>
+        <v>100.8</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.896000000000803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1203,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.26299999999901</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -1214,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>132.6209999999992</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>15.708</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4">
@@ -1283,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>20.667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1305,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5.958</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,7 +1357,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1357,34 +1368,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
